--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/premodern-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/premodern-uncommon.xlsx
@@ -87,6 +87,32 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal
+Keywords:
+➤ Madness</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Counter target spell unless its controller pays {1} for each card in your graveyard.
+Madness {U} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 2/2
 Border: black
 Finish: normal
@@ -95,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Cast this spell only if you've cast another spell this turn.
@@ -103,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
@@ -111,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 0/5
@@ -122,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Defender (This creature can't attack.)
@@ -130,37 +156,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
 ➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal
-Keywords:
-➤ Madness</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Counter target spell unless its controller pays {1} for each card in your graveyard.
-Madness {U} (If you discard this card, discard it into exile. When you do, cast it for its madness cost or put it into your graveyard.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -177,7 +177,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: white
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -185,15 +185,16 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">White spells cost {3} more to cast.
-Activated abilities of white enchantments cost {3} more to activate.</t>
+          <t xml:space="preserve">As an additional cost to cast this spell, discard X cards.
+Look at target opponent's hand and choose X cards from it. That player discards those cards.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 1× 𝗫 generic
+➤ 1 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -223,6 +224,13 @@
         </r>
       </text>
     </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <t>Group: decks</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0">
       <text>
         <r>
@@ -248,13 +256,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <t>Group: decks</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D6" authorId="0">
       <text>
         <r>
@@ -266,24 +267,22 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">As an additional cost to cast this spell, discard X cards.
-Look at target opponent's hand and choose X cards from it. That player discards those cards.</t>
+          <t>Exile target nonblack creature. Search its controller's graveyard, hand, and library for all cards with the same name as that creature and exile them. Then that player shuffles.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1× 𝗫 generic
-➤ 1 generic
-➤ 1 black</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 black</t>
         </r>
       </text>
     </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">Border: white
 Finish: normal</t>
         </r>
       </text>
@@ -291,7 +290,8 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>Exile target nonblack creature. Search its controller's graveyard, hand, and library for all cards with the same name as that creature and exile them. Then that player shuffles.</t>
+          <t xml:space="preserve">White spells cost {3} more to cast.
+Activated abilities of white enchantments cost {3} more to activate.</t>
         </r>
       </text>
     </comment>
@@ -299,7 +299,7 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
-➤ 2 black</t>
+➤ 1 black</t>
         </r>
       </text>
     </comment>
@@ -540,6 +540,33 @@
     <t>Premodern (Uncommon) - Blue</t>
   </si>
   <si>
+    <t>Circular Logic</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>tor</t>
+  </si>
+  <si>
+    <t>Torment</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>{2}{U}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>Open Circular Logic</t>
+  </si>
+  <si>
     <t>Skyshroud Condor</t>
   </si>
   <si>
@@ -556,9 +583,6 @@
   </si>
   <si>
     <t>{1}{U}</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
   <si>
     <t>0.21</t>
@@ -591,52 +615,7 @@
     <t>Open Wall of Water</t>
   </si>
   <si>
-    <t>Circular Logic</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>tor</t>
-  </si>
-  <si>
-    <t>Torment</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>{2}{U}</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>Open Circular Logic</t>
-  </si>
-  <si>
     <t>Premodern (Uncommon) - Black</t>
-  </si>
-  <si>
-    <t>Gloom</t>
-  </si>
-  <si>
-    <t>Enchantment</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>{2}{B}</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>Open Gloom</t>
   </si>
   <si>
     <t>Abandon Hope</t>
@@ -652,6 +631,9 @@
   </si>
   <si>
     <t>{X}{1}{B}</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>0.22</t>
@@ -679,6 +661,24 @@
   </si>
   <si>
     <t>Open Eradicate</t>
+  </si>
+  <si>
+    <t>Gloom</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>{2}{B}</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>Open Gloom</t>
   </si>
   <si>
     <t>Premodern (Uncommon) - Red</t>
@@ -852,7 +852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -899,39 +899,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,18 +932,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4804,7 +4764,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>29</v>
@@ -4822,7 +4782,7 @@
         <v>33</v>
       </c>
       <c r="J3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>34</v>
@@ -4842,7 +4802,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
@@ -4866,7 +4826,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>34</v>
@@ -4886,13 +4846,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>46</v>
@@ -8231,16 +8191,16 @@
         <v>54</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>39</v>
@@ -8249,200 +8209,200 @@
         <v>40</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="E4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="7">
+      <c r="I4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="13">
         <v>3</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="K7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="15">
-        <v>2</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="17">
-        <v>4</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11751,46 +11711,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <v>4</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -15095,46 +15055,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <v>5</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -18519,7 +18479,7 @@
         <v>98</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>106</v>
@@ -18542,10 +18502,10 @@
         <v>109</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>110</v>
